--- a/TEMPI.xlsx
+++ b/TEMPI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marco\Documents\GitHub\catia-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963360B5-D835-4A5B-AF25-F4771B2A57AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1196A3-1D3A-44B4-A001-565E33BF59BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3564" yWindow="1284" windowWidth="17280" windowHeight="9072" xr2:uid="{D754B3BE-A2D5-4826-A50A-B46C8C901FEC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{D754B3BE-A2D5-4826-A50A-B46C8C901FEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -202,7 +202,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -239,30 +239,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -299,11 +275,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -314,18 +321,24 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="45" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="45" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="45" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="45" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="45" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="45" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -640,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F958B6D3-2937-4C2C-9794-1CD821B72AA3}">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -655,18 +668,19 @@
     <col min="12" max="12" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E1" s="4" t="s">
         <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="J1" s="2"/>
       <c r="K1" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -676,202 +690,349 @@
       <c r="I2" s="9" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K2" s="16"/>
+      <c r="L2" s="21">
+        <f>SUM(L4,L10)</f>
+        <v>1.5636574074074074E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K3" s="16"/>
+      <c r="L3" s="17"/>
+    </row>
+    <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="21"/>
+      <c r="D4" s="15"/>
       <c r="E4" s="5"/>
       <c r="F4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="21"/>
+      <c r="G4" s="26"/>
       <c r="H4" s="6" t="s">
         <v>19</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="21"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="7"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J4" s="26"/>
+      <c r="K4" s="20">
+        <f>SUM(K5:K7)</f>
+        <v>4.9884259259259257E-3</v>
+      </c>
+      <c r="L4" s="18">
+        <f>SUM(L5:L7)</f>
+        <v>5.8680555555555552E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K5" s="16">
+        <v>1.0648148148148147E-3</v>
+      </c>
+      <c r="L5" s="17">
+        <v>1.3541666666666667E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K6" s="16">
+        <v>3.7962962962962963E-3</v>
+      </c>
+      <c r="L6" s="17">
+        <v>4.3749999999999995E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K7" s="16">
+        <v>1.273148148148148E-4</v>
+      </c>
+      <c r="L7" s="17">
+        <v>1.3888888888888889E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K8" s="16"/>
+      <c r="L8" s="17"/>
+    </row>
+    <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K9" s="16"/>
+      <c r="L9" s="17"/>
+    </row>
+    <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="10" t="s">
+      <c r="D10" s="15"/>
+      <c r="E10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="12" t="s">
+      <c r="G10" s="26"/>
+      <c r="H10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J10" s="21"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="13"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J10" s="26"/>
+      <c r="K10" s="18">
+        <f>SUM(K11,K17,K29)</f>
+        <v>7.9398148148148127E-3</v>
+      </c>
+      <c r="L10" s="18">
+        <f>SUM(L11,L17,L29)</f>
+        <v>9.7685185185185184E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="17" t="s">
+      <c r="G11" s="23"/>
+      <c r="H11" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="18" t="s">
+      <c r="I11" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="16"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="18"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J11" s="23"/>
+      <c r="K11" s="16">
+        <f>SUM(K12:K15)</f>
+        <v>5.2777777777777771E-3</v>
+      </c>
+      <c r="L11" s="17">
+        <f>SUM(L12:L15)</f>
+        <v>6.4236111111111108E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K12" s="16">
+        <v>1.0648148148148147E-3</v>
+      </c>
+      <c r="L12" s="17">
+        <v>1.1574074074074073E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K13" s="16">
+        <v>1.712962962962963E-3</v>
+      </c>
+      <c r="L13" s="17">
+        <v>1.8518518518518517E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C16" t="s">
+      <c r="K14" s="16">
+        <v>1.7824074074074072E-3</v>
+      </c>
+      <c r="L14" s="17">
+        <v>2.3379629629629631E-3</v>
+      </c>
+      <c r="P14" s="27"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="16">
+        <v>7.175925925925927E-4</v>
+      </c>
+      <c r="L15" s="17">
+        <v>1.0763888888888889E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D17" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E17" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F17" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="19" t="s">
+      <c r="G17" s="12"/>
+      <c r="H17" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I16" s="18" t="s">
+      <c r="I17" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J16" s="16"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="18"/>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="J17" s="12"/>
+      <c r="K17" s="19">
+        <f>SUM(K18:K27)</f>
+        <v>2.5694444444444441E-3</v>
+      </c>
+      <c r="L17" s="19">
+        <f>SUM(L18:L27)</f>
+        <v>3.2407407407407402E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="K18" s="16">
+        <v>1.7245370370370372E-3</v>
+      </c>
+      <c r="L18" s="17">
+        <v>1.9675925925925928E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="K19" s="16">
+        <v>1.8518518518518518E-4</v>
+      </c>
+      <c r="L19" s="17">
+        <v>2.4305555555555552E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="K20" s="16">
+        <v>8.1018518518518516E-5</v>
+      </c>
+      <c r="L20" s="17">
+        <v>1.3888888888888889E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="K21" s="16">
+        <v>8.1018518518518516E-5</v>
+      </c>
+      <c r="L21" s="17">
+        <v>1.5046296296296297E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="K22" s="16">
+        <v>8.1018518518518516E-5</v>
+      </c>
+      <c r="L22" s="17">
+        <v>9.2592592592592588E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="K23" s="16">
+        <v>8.1018518518518516E-5</v>
+      </c>
+      <c r="L23" s="17">
+        <v>1.5046296296296297E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="K24" s="16">
+        <v>8.1018518518518516E-5</v>
+      </c>
+      <c r="L24" s="17">
+        <v>9.2592592592592588E-5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="K25" s="16">
+        <v>8.1018518518518516E-5</v>
+      </c>
+      <c r="L25" s="17">
+        <v>1.5046296296296297E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="K26" s="16">
+        <v>8.1018518518518516E-5</v>
+      </c>
+      <c r="L26" s="17">
+        <v>9.2592592592592588E-5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="K27" s="16">
+        <v>9.2592592592592588E-5</v>
+      </c>
+      <c r="L27" s="17">
+        <v>1.6203703703703703E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="K28" s="16"/>
+      <c r="L28" s="17"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>4</v>
       </c>
       <c r="D29" t="s">
         <v>2</v>
+      </c>
+      <c r="K29" s="16">
+        <v>9.2592592592592588E-5</v>
+      </c>
+      <c r="L29" s="17">
+        <v>1.0416666666666667E-4</v>
       </c>
     </row>
   </sheetData>
